--- a/bikesharecharts.xlsx
+++ b/bikesharecharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/sql/bikeshare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF35B9F9-7B8E-3246-A8BB-67820F4DDE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02C0A0E-9E01-F64D-910F-23C8F746345E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hourly" sheetId="1" r:id="rId1"/>
@@ -18,90 +18,17 @@
     <sheet name="month" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">hourly!$A$2:$B$169</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">hourly!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">hourly!$A$2:$B$169</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">hourly!$C$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">hourly!$C$2:$C$169</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">hourly!$D$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">hourly!$D$2:$D$169</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">hourly!$A$2:$B$169</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">hourly!$C$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">hourly!$C$2:$C$169</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">hourly!$D$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">hourly!$D$2:$D$169</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">hourly!$C$2:$C$169</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">weekday!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">weekday!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">weekday!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">weekday!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">weekday!$C$2:$C$8</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">weekday!$D$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">weekday!$D$2:$D$8</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">weekday!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">weekday!$B$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">weekday!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">hourly!$D$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">weekday!$C$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">weekday!$C$2:$C$8</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">weekday!$D$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">weekday!$D$2:$D$8</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">weekday!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">weekday!$B$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">weekday!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">weekday!$C$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">weekday!$C$2:$C$8</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">weekday!$D$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">hourly!$D$2:$D$169</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">weekday!$D$2:$D$8</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">weekday!$E$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">weekday!$E$2:$E$8</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">weekday!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">weekday!$B$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">weekday!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">weekday!$C$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">weekday!$C$2:$C$8</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">weekday!$D$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">weekday!$D$2:$D$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">hourly!$A$2:$B$169</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">weekday!$E$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">weekday!$E$2:$E$8</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">weekday!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">weekday!$B$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">weekday!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">weekday!$C$1</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">weekday!$C$2:$C$8</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">weekday!$D$1</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">weekday!$D$2:$D$8</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">weekday!$E$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">hourly!$C$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">weekday!$E$2:$E$8</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">weekday!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">weekday!$B$1</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">weekday!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">weekday!$C$1</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">weekday!$C$2:$C$8</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">weekday!$D$1</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">weekday!$D$2:$D$8</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">weekday!$E$1</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">weekday!$E$2:$E$8</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">hourly!$C$2:$C$169</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">weekday!$A$2:$A$8</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">weekday!$B$1</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">weekday!$B$2:$B$8</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">weekday!$C$1</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">weekday!$C$2:$C$8</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">weekday!$D$1</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">weekday!$D$2:$D$8</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">weekday!$E$1</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">weekday!$E$2:$E$8</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">month!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">hourly!$D$1</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">month!$B$1</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">month!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">month!$C$1</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">month!$C$2:$C$13</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">hourly!$D$2:$D$169</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">month!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">month!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">month!$E$2:$E$13</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">month!$B$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">month!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">month!$C$2:$C$13</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">month!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">month!$E$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">month!$E$2:$E$13</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">month!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">month!$E$1</definedName>
     <definedName name="month" localSheetId="2">month!$A$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -111,7 +38,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{C4A2922C-D205-004F-A6D8-7EEAE1E66D55}" name="month" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/chris/sql/bikeshare/month.csv" tab="0" comma="1">
+    <textPr sourceFile="/Users/chris/sql/bikeshare/month.csv" tab="0" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -285,6 +212,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF53E07"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -309,6 +241,7 @@
       <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -439,10 +372,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
+              <a:srgbClr val="44546A"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:noFill/>
@@ -1117,16 +1047,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:srgbClr val="5B9BD5"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1897,13 +1820,10 @@
       <c:spPr>
         <a:pattFill prst="narVert">
           <a:fgClr>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
           </a:fgClr>
           <a:bgClr>
-            <a:schemeClr val="bg1"/>
+            <a:srgbClr val="FFC000"/>
           </a:bgClr>
         </a:pattFill>
         <a:ln>
@@ -1974,7 +1894,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="E7E6E6">
+        <a:lumMod val="90000"/>
+      </a:srgbClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2790,12 +2712,15 @@
           <c:spPr>
             <a:pattFill prst="narHorz">
               <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
               </a:fgClr>
               <a:bgClr>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="FFC000">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
               </a:bgClr>
             </a:pattFill>
             <a:ln>
@@ -2863,111 +2788,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>weekday!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2018-19 Percent Change</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="76200" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="lgDash"/>
-              <a:round/>
-              <a:headEnd type="none"/>
-              <a:tailEnd type="none"/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="40000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>weekday!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Monday</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tuesday</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Wednesday</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Thursday</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Friday</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Saturday</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sunday</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>weekday!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.45450000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.44990000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34989999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.36749999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.39550000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.53269999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.49280000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-1EB1-1C4B-9FF2-C6321ECC4BB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>weekday!$E$1</c:f>
@@ -2982,9 +2804,7 @@
           <c:spPr>
             <a:ln w="76200" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="98500"/>
-                </a:schemeClr>
+                <a:srgbClr val="F53E07"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3078,6 +2898,107 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-1EB1-1C4B-9FF2-C6321ECC4BB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weekday!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2018-19 Percent Change</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="76200" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>weekday!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>weekday!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.45450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53269999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49280000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1EB1-1C4B-9FF2-C6321ECC4BB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3254,6 +3175,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1674074975"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3262,13 +3184,12 @@
       <c:spPr>
         <a:pattFill prst="narVert">
           <a:fgClr>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
+            <a:srgbClr val="5B9BD5">
+              <a:lumMod val="50000"/>
+            </a:srgbClr>
           </a:fgClr>
           <a:bgClr>
-            <a:schemeClr val="bg1"/>
+            <a:srgbClr val="5B9BD5"/>
           </a:bgClr>
         </a:pattFill>
         <a:ln>
@@ -3333,7 +3254,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
+      <a:srgbClr val="E7E6E6">
+        <a:lumMod val="90000"/>
+      </a:srgbClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3386,38 +3309,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-                <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-                <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2800">
-                <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-                <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-                <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              </a:rPr>
-              <a:t>2018-19 Ridership</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2800" baseline="0">
-                <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-                <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-                <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="2800">
-                <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-                <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-                <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              </a:rPr>
-              <a:t>by Month</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>2018-19 Ridership by Month</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3426,8 +3329,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15415709464888316"/>
-          <c:y val="9.2543883845729466E-2"/>
+          <c:x val="0.23557676224884211"/>
+          <c:y val="3.4851599532723467E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3454,13 +3357,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3475,9 +3378,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="2.9917660292463441E-2"/>
-          <c:y val="5.1716234515271575E-2"/>
+          <c:y val="1.6797233447474667E-2"/>
           <c:w val="0.94911380363168885"/>
-          <c:h val="0.85720973970610359"/>
+          <c:h val="0.89212879082393592"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3637,12 +3540,15 @@
           <c:spPr>
             <a:pattFill prst="narHorz">
               <a:fgClr>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
               </a:fgClr>
               <a:bgClr>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="FFC000">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
               </a:bgClr>
             </a:pattFill>
             <a:ln>
@@ -3872,13 +3778,12 @@
       <c:spPr>
         <a:pattFill prst="narVert">
           <a:fgClr>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
+            <a:srgbClr val="5B9BD5">
+              <a:lumMod val="50000"/>
+            </a:srgbClr>
           </a:fgClr>
           <a:bgClr>
-            <a:schemeClr val="bg1"/>
+            <a:srgbClr val="5B9BD5"/>
           </a:bgClr>
         </a:pattFill>
         <a:ln>
@@ -3893,10 +3798,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11027658856340934"/>
-          <c:y val="0.2956255293785488"/>
-          <c:w val="0.28365654786173217"/>
-          <c:h val="4.4087743514132444E-2"/>
+          <c:x val="0.12114544089108223"/>
+          <c:y val="0.9509433754752501"/>
+          <c:w val="0.74934696212146057"/>
+          <c:h val="3.479601122190519E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3927,9 +3832,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3943,7 +3848,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
+      <a:srgbClr val="E7E6E6">
+        <a:lumMod val="90000"/>
+      </a:srgbClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -4000,17 +3907,13 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-                <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-                <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000">
-                <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-                <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-                <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              </a:rPr>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>2018-19 Percent Change</a:t>
             </a:r>
           </a:p>
@@ -4020,8 +3923,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38788062691227149"/>
-          <c:y val="0.1539474747530562"/>
+          <c:x val="0.376030289447009"/>
+          <c:y val="9.1869106139733481E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4052,9 +3955,9 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Menlo" panose="020B0609030804020204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -4068,10 +3971,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.1987891409764631E-2"/>
-          <c:y val="5.1716234515271575E-2"/>
-          <c:w val="0.95021112963165844"/>
-          <c:h val="0.85720973970610359"/>
+          <c:x val="2.9917660292463441E-2"/>
+          <c:y val="1.6797233447474667E-2"/>
+          <c:w val="0.94911380363168885"/>
+          <c:h val="0.88123688779940546"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4333,13 +4236,12 @@
       <c:spPr>
         <a:pattFill prst="narVert">
           <a:fgClr>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
+            <a:srgbClr val="5B9BD5">
+              <a:lumMod val="50000"/>
+            </a:srgbClr>
           </a:fgClr>
           <a:bgClr>
-            <a:schemeClr val="bg1"/>
+            <a:srgbClr val="5B9BD5"/>
           </a:bgClr>
         </a:pattFill>
         <a:ln>
@@ -4355,7 +4257,9 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
+      <a:srgbClr val="E7E6E6">
+        <a:lumMod val="90000"/>
+      </a:srgbClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -7205,14 +7109,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>135467</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>194732</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>186267</xdr:rowOff>
+      <xdr:rowOff>186266</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7285,13 +7189,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>406401</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>25399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>364067</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>194731</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8476,11 +8380,297 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -12567,7 +12757,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12722,8 +12912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA64C4F-F537-6240-8362-0F566F7307B7}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
